--- a/xlsx/牧师_intext.xlsx
+++ b/xlsx/牧师_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="428">
   <si>
     <t>牧师</t>
   </si>
@@ -29,7 +29,7 @@
     <t>西班牙</t>
   </si>
   <si>
-    <t>政策_政策_美國_牧师</t>
+    <t>政策_政策_美国_牧师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E7%9A%84%E6%96%AF</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>教會</t>
+    <t>教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E5%BE%92</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%B6%93</t>
   </si>
   <si>
-    <t>聖經</t>
+    <t>圣经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%A7%E7%BE%8A%E4%BA%BA</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>天主教會</t>
+    <t>天主教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%95%99</t>
@@ -89,43 +89,43 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%AA%9E</t>
   </si>
   <si>
-    <t>拉丁語</t>
+    <t>拉丁语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E6%96%87</t>
   </si>
   <si>
-    <t>希臘文</t>
+    <t>希腊文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%B4%84%E8%81%96%E7%B6%93</t>
   </si>
   <si>
-    <t>新約聖經</t>
+    <t>新约圣经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E5%BC%97%E6%89%80%E6%9B%B8</t>
   </si>
   <si>
-    <t>以弗所書</t>
+    <t>以弗所书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%B6%93%E5%92%8C%E5%90%88%E6%9C%AC</t>
   </si>
   <si>
-    <t>聖經和合本</t>
+    <t>圣经和合本</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%B8%AB</t>
   </si>
   <si>
-    <t>教師</t>
+    <t>教师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%B6%93%E8%AD%AF%E6%9C%AC</t>
   </si>
   <si>
-    <t>聖經譯本</t>
+    <t>圣经译本</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%BB%8F%E5%92%8C%E5%90%88%E6%9C%AC%E4%BF%AE%E8%AE%A2%E7%89%88</t>
@@ -137,25 +137,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%B6%93_(%E5%91%82%E6%8C%AF%E4%B8%AD%E8%AD%AF%E6%9C%AC)</t>
   </si>
   <si>
-    <t>聖經 (呂振中譯本)</t>
+    <t>圣经 (吕振中译本)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%B6%93%E6%81%A2%E5%BE%A9%E6%9C%AC</t>
   </si>
   <si>
-    <t>聖經恢復本</t>
+    <t>圣经恢复本</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%B6%93_(%E6%80%9D%E9%AB%98%E8%AD%AF%E6%9C%AC)</t>
   </si>
   <si>
-    <t>聖經 (思高譯本)</t>
+    <t>圣经 (思高译本)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%B6%93%E6%96%B0%E8%AD%AF%E6%9C%AC</t>
   </si>
   <si>
-    <t>聖經新譯本</t>
+    <t>圣经新译本</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%95%BF%E8%80%81</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A3%E7%9D%A3</t>
   </si>
   <si>
-    <t>監督</t>
+    <t>监督</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%95%99</t>
@@ -179,13 +179,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E9%90%B8</t>
   </si>
   <si>
-    <t>司鐸</t>
+    <t>司铎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%8D%80</t>
   </si>
   <si>
-    <t>教區</t>
+    <t>教区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E6%94%B9%E9%9D%A9</t>
@@ -197,13 +197,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E7%88%BE%E6%96%87</t>
   </si>
   <si>
-    <t>加爾文</t>
+    <t>加尔文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%85%88%E9%81%8B%E7%90%86</t>
   </si>
   <si>
-    <t>慈運理</t>
+    <t>慈运理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E9%96%A9%E5%8D%97%E8%AA%9E</t>
   </si>
   <si>
-    <t>臺灣閩南語</t>
+    <t>台湾闽南语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B8%E4%BF%A1%E4%BC%9A</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8F%90%E5%A4%9A%E6%9B%B8</t>
   </si>
   <si>
-    <t>提多書</t>
+    <t>提多书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E6%80%A7</t>
@@ -251,67 +251,64 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B8%E4%BF%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>浸信會</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E7%BE%A9%E6%9C%83</t>
   </si>
   <si>
-    <t>信義會</t>
+    <t>信义会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E7%B4%9A%E8%81%96%E5%93%81%E5%88%B6</t>
   </si>
   <si>
-    <t>三級聖品制</t>
+    <t>三级圣品制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%83%E5%90%8F</t>
   </si>
   <si>
-    <t>會吏</t>
+    <t>会吏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%83%E7%9C%BE%E5%88%B6</t>
   </si>
   <si>
-    <t>會眾制</t>
+    <t>会众制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%95%99</t>
   </si>
   <si>
-    <t>國教</t>
+    <t>国教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%AC%E6%9C%83</t>
   </si>
   <si>
-    <t>聖公會</t>
+    <t>圣公会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E7%90%86%E6%9C%83</t>
   </si>
   <si>
-    <t>衛理會</t>
+    <t>卫理会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AC%E6%9C%83</t>
   </si>
   <si>
-    <t>召會</t>
+    <t>召会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E5%BE%92%E7%9A%86%E7%A5%AD%E5%8F%B8</t>
@@ -323,13 +320,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%80%E8%AB%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>門諾會</t>
+    <t>门诺会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%9F%E5%85%84%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>弟兄運動</t>
+    <t>弟兄运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A0%82%E5%8C%BA</t>
@@ -341,49 +338,49 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>神學</t>
+    <t>神学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E9%81%93%E4%BA%BA</t>
   </si>
   <si>
-    <t>傳道人</t>
+    <t>传道人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%A7%E5%A0%82%E4%B8%BB%E4%BB%BB%E7%89%A7%E5%B8%AB</t>
   </si>
   <si>
-    <t>座堂主任牧師</t>
+    <t>座堂主任牧师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E4%B8%96%E8%81%96%E5%85%AC%E5%AE%97</t>
   </si>
   <si>
-    <t>普世聖公宗</t>
+    <t>普世圣公宗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A9%E7%90%86%E7%89%A7%E5%B8%AB</t>
   </si>
   <si>
-    <t>助理牧師</t>
+    <t>助理牧师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E6%94%BF%E7%89%A7%E5%B8%AB</t>
   </si>
   <si>
-    <t>法政牧師</t>
+    <t>法政牧师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%83%E5%90%8F%E9%95%B7</t>
   </si>
   <si>
-    <t>會吏長</t>
+    <t>会吏长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B7%9A%E4%B8%8A%E9%81%8A%E6%88%B2</t>
   </si>
   <si>
-    <t>線上遊戲</t>
+    <t>线上游戏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AD%94%E5%85%BD%E4%B8%96%E7%95%8C</t>
@@ -437,7 +434,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E7%A9%8C%E5%8F%97%E9%9B%A3</t>
   </si>
   <si>
-    <t>耶穌受難</t>
+    <t>耶稣受难</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E7%A8%A3%E5%A4%8D%E6%B4%BB</t>
@@ -449,19 +446,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E7%A9%8C%E5%8D%87%E5%A4%A9</t>
   </si>
   <si>
-    <t>耶穌升天</t>
+    <t>耶稣升天</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>基督教會</t>
+    <t>基督教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E7%B6%93</t>
   </si>
   <si>
-    <t>信經</t>
+    <t>信经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E7%A6%8F%E9%9F%B3%E4%B9%A6</t>
@@ -491,7 +488,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E7%A5%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>基督教神學</t>
+    <t>基督教神学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E7%9A%84%E7%A5%9E</t>
@@ -509,31 +506,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%88%B6</t>
   </si>
   <si>
-    <t>聖父</t>
+    <t>圣父</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%AD%90</t>
   </si>
   <si>
-    <t>聖子</t>
+    <t>圣子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%9D%88</t>
   </si>
   <si>
-    <t>聖靈</t>
+    <t>圣灵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E8%BE%A8%E6%83%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>基督教辨惑學</t>
+    <t>基督教辨惑学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%97%E7%A6%AE</t>
   </si>
   <si>
-    <t>洗禮</t>
+    <t>洗礼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E8%AE%BA</t>
@@ -563,7 +560,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B4%96%E7%BD%AA</t>
   </si>
   <si>
-    <t>贖罪</t>
+    <t>赎罪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E5%8E%86%E5%8F%B2</t>
@@ -581,13 +578,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%88%A9%E4%BA%9E_(%E8%80%B6%E7%A9%8C%E7%9A%84%E6%AF%8D%E8%A6%AA)</t>
   </si>
   <si>
-    <t>馬利亞 (耶穌的母親)</t>
+    <t>马利亚 (耶稣的母亲)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8B%A5%E7%91%9F</t>
   </si>
   <si>
-    <t>聖若瑟</t>
+    <t>圣若瑟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%BF%E5%BE%92_(%E5%9F%BA%E7%9D%A3%E6%95%99)</t>
@@ -611,25 +608,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E7%88%B6_(%E5%9F%BA%E7%9D%A3%E6%95%99%E6%AD%B7%E5%8F%B2)</t>
   </si>
   <si>
-    <t>教父 (基督教歷史)</t>
+    <t>教父 (基督教历史)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%BF%E5%BE%92%E7%B5%B1%E7%B7%92</t>
   </si>
   <si>
-    <t>使徒統緒</t>
+    <t>使徒统绪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E6%9C%83%E5%9B%9B%E7%89%B9%E5%BE%B5</t>
   </si>
   <si>
-    <t>教會四特徵</t>
+    <t>教会四特征</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E5%A4%A7%E7%89%A7%E9%A6%96%E5%8D%80</t>
   </si>
   <si>
-    <t>五大牧首區</t>
+    <t>五大牧首区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A9%E6%9C%9F%E5%9F%BA%E7%9D%A3%E6%95%99</t>
@@ -653,7 +650,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%85%AC%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>大公會議</t>
+    <t>大公会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E6%B3%A2%E7%9A%84%E5%A5%A5%E5%8F%A4%E6%96%AF%E4%B8%81</t>
@@ -665,13 +662,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E8%A5%BF%E6%95%99%E6%9C%83%E5%A4%A7%E5%88%86%E8%A3%82</t>
   </si>
   <si>
-    <t>東西教會大分裂</t>
+    <t>东西教会大分裂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E5%AD%97%E8%BB%8D%E6%9D%B1%E5%BE%81</t>
   </si>
   <si>
-    <t>十字軍東征</t>
+    <t>十字军东征</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A9%AC%E6%96%AF%C2%B7%E9%98%BF%E5%A5%8E%E9%82%A3</t>
@@ -689,19 +686,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9D%E7%B4%8D%E7%88%B5%C2%B7%E7%BE%85%E8%80%80%E6%8B%89</t>
   </si>
   <si>
-    <t>依納爵·羅耀拉</t>
+    <t>依纳爵·罗耀拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%B8%81%C2%B7%E8%B7%AF%E5%BE%B7</t>
   </si>
   <si>
-    <t>馬丁·路德</t>
+    <t>马丁·路德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%93%C2%B7%E5%96%80%E7%88%BE%E6%96%87</t>
   </si>
   <si>
-    <t>讓·喀爾文</t>
+    <t>让·喀尔文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF%E6%AD%A3%E6%95%99%E4%BC%9A%E7%9A%84%E6%95%99%E6%B4%BE%E5%88%86%E8%A3%82</t>
@@ -713,19 +710,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A6%BA%E9%86%92%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>大覺醒運動</t>
+    <t>大觉醒运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E4%B8%96%E6%95%99%E6%9C%83%E5%90%88%E4%B8%80%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>普世教會合一運動</t>
+    <t>普世教会合一运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%9F%E7%99%BC%E8%AA%B2%E7%A8%8B</t>
   </si>
   <si>
-    <t>啟發課程</t>
+    <t>启发课程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E6%B4%BE%E7%B3%BB</t>
@@ -743,7 +740,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%84%80%E5%A4%A9%E4%B8%BB%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>東儀天主教會</t>
+    <t>东仪天主教会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Independent_Catholic_churches</t>
@@ -755,13 +752,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E5%A4%A9%E4%B8%BB%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>舊天主教會</t>
+    <t>旧天主教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E7%88%BE%E9%A6%AC%E7%88%BE%E5%A4%A9%E4%B8%BB%E6%95%99%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>帕爾馬爾天主教教會</t>
+    <t>帕尔马尔天主教教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%A4%A9%E4%B8%BB%E6%95%99%E7%88%B1%E5%9B%BD%E4%BC%9A</t>
@@ -785,7 +782,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>正教會</t>
+    <t>正教会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Western_Rite_Orthodoxy</t>
@@ -803,19 +800,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%96%B9%E6%AD%A3%E7%B5%B1%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>東方正統教會</t>
+    <t>东方正统教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%B6%E6%96%AF%E8%84%AB%E9%87%8C%E6%B4%BE%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>聶斯脫里派教會</t>
+    <t>聂斯脱里派教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%96%B9%E4%BA%9E%E8%BF%B0%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>東方亞述教會</t>
+    <t>东方亚述教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AF%E6%95%99</t>
@@ -839,25 +836,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E7%BE%A9%E5%AE%97</t>
   </si>
   <si>
-    <t>信義宗</t>
+    <t>信义宗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E7%88%BE%E6%96%87%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>加爾文主義</t>
+    <t>加尔文主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%B8%E6%AD%A3%E5%AE%97</t>
   </si>
   <si>
-    <t>歸正宗</t>
+    <t>归正宗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E8%80%81%E5%AE%97</t>
   </si>
   <si>
-    <t>長老宗</t>
+    <t>长老宗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E7%90%86%E4%BC%9A</t>
@@ -869,7 +866,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%AC%E5%AE%97</t>
   </si>
   <si>
-    <t>聖公宗</t>
+    <t>圣公宗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%8D%E6%B4%97%E7%A4%BC%E6%B4%BE</t>
@@ -899,7 +896,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%B0%91%E5%BF%B5%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>阿民念主義</t>
+    <t>阿民念主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AA%E9%81%93%E5%AE%97</t>
@@ -911,19 +908,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%BF%E6%92%92%E5%8B%92%E4%BA%BA%E6%9C%83</t>
   </si>
   <si>
-    <t>拿撒勒人會</t>
+    <t>拿撒勒人会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E5%BE%A9%E8%87%A8%E5%AE%89%E6%81%AF%E6%97%A5%E6%9C%83</t>
   </si>
   <si>
-    <t>基督復臨安息日會</t>
+    <t>基督复临安息日会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E6%97%AC%E7%AF%80%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>五旬節運動</t>
+    <t>五旬节运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E5%88%A9%E8%8C%85%E6%96%AF%E5%BC%9F%E5%85%84%E4%BC%9A</t>
@@ -935,13 +932,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%B4%E6%A0%BC%E6%9C%83</t>
   </si>
   <si>
-    <t>貴格會</t>
+    <t>贵格会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E5%AE%A3%E9%81%93%E6%9C%83</t>
   </si>
   <si>
-    <t>基督教宣道會</t>
+    <t>基督教宣道会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E6%96%B9%E6%95%99%E4%BC%9A</t>
@@ -953,55 +950,55 @@
     <t>https://zh.wikipedia.org/wiki/%E6%81%A2%E5%BE%A9%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>恢復運動</t>
+    <t>恢复运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%BD%94%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>聖潔運動</t>
+    <t>圣洁运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E4%B8%89%E4%BD%8D%E4%B8%80%E9%AB%94%E6%B4%BE</t>
   </si>
   <si>
-    <t>非三位一體派</t>
+    <t>非三位一体派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E5%92%8C%E8%8F%AF%E8%A6%8B%E8%AD%89%E4%BA%BA</t>
   </si>
   <si>
-    <t>耶和華見證人</t>
+    <t>耶和华见证人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E6%9C%9F%E8%81%96%E5%BE%92%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>後期聖徒運動</t>
+    <t>后期圣徒运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E5%BC%9F%E5%85%84%E6%9C%83</t>
   </si>
   <si>
-    <t>基督弟兄會</t>
+    <t>基督弟兄会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9C%9F%E8%80%B6%E7%A9%8C%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>真耶穌教會</t>
+    <t>真耶稣教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E7%A7%91%E5%AD%B8%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>基督科學教會</t>
+    <t>基督科学教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%B8%81%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>馬丁主義</t>
+    <t>马丁主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Messianic_Judaism</t>
@@ -1019,7 +1016,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%91%E4%B8%96%E8%BB%8D</t>
   </si>
   <si>
-    <t>救世軍</t>
+    <t>救世军</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Jesuism</t>
@@ -1037,13 +1034,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8E%9F%E4%BD%8F%E6%B0%91%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>美國原住民教會</t>
+    <t>美国原住民教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E8%97%9D%E8%A1%93</t>
   </si>
   <si>
-    <t>基督教藝術</t>
+    <t>基督教艺术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E9%9F%B3%E4%B9%90</t>
@@ -1055,7 +1052,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E7%A6%AE%E6%8B%9C%E5%84%80%E5%BC%8F</t>
   </si>
   <si>
-    <t>基督教禮拜儀式</t>
+    <t>基督教礼拜仪式</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%81%93</t>
@@ -1073,19 +1070,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E7%A5%9E%E7%A7%98%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>基督教神秘主義</t>
+    <t>基督教神秘主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E5%82%B3%E5%9F%BA%E7%9D%A3%E6%95%99</t>
   </si>
   <si>
-    <t>密傳基督教</t>
+    <t>密传基督教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E6%96%AF%E5%BA%95%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>諾斯底主義</t>
+    <t>诺斯底主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Christianity_and_other_religions</t>
@@ -1097,7 +1094,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E6%9C%83%E5%B9%B4%E6%9B%86</t>
   </si>
   <si>
-    <t>教會年曆</t>
+    <t>教会年历</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Christian_symbolism</t>
@@ -1115,7 +1112,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E5%B1%B1%E5%A4%A7%E7%A6%AE</t>
   </si>
   <si>
-    <t>亞歷山大禮</t>
+    <t>亚历山大礼</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Antiochene_Rite</t>
@@ -1127,7 +1124,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E%E7%A6%AE</t>
   </si>
   <si>
-    <t>亞美尼亞禮</t>
+    <t>亚美尼亚礼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%9C%E5%8D%A0%E5%BA%AD%E7%A4%BC</t>
@@ -1145,25 +1142,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E7%A6%AE%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>拉丁禮教會</t>
+    <t>拉丁礼教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E7%AB%8B%E7%94%98%E7%BF%92%E4%BE%8B</t>
   </si>
   <si>
-    <t>安立甘習例</t>
+    <t>安立甘习例</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E7%A6%AE</t>
   </si>
   <si>
-    <t>羅馬禮</t>
+    <t>罗马礼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%8D%9A%E7%A6%AE</t>
   </si>
   <si>
-    <t>安博禮</t>
+    <t>安博礼</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sarum_Rite</t>
@@ -1175,7 +1172,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%88%BE%E9%98%BF%E6%8B%89%E4%BC%AF%E7%A6%AE</t>
   </si>
   <si>
-    <t>摩爾阿拉伯禮</t>
+    <t>摩尔阿拉伯礼</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Church_architecture</t>
@@ -1229,19 +1226,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%B8%BD%E4%B8%BB%E6%95%99</t>
   </si>
   <si>
-    <t>大總主教</t>
+    <t>大总主教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%9E%E6%A9%9F</t>
   </si>
   <si>
-    <t>樞機</t>
+    <t>枢机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E4%B8%BB%E6%95%99</t>
   </si>
   <si>
-    <t>總主教</t>
+    <t>总主教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E4%B8%BB%E6%95%99</t>
@@ -1253,7 +1250,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%B7%E4%BA%8B</t>
   </si>
   <si>
-    <t>執事</t>
+    <t>执事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%A0%E6%95%99%E5%A3%AB</t>
@@ -1277,7 +1274,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BC%94%E7%A5%AD</t>
   </si>
   <si>
-    <t>輔祭</t>
+    <t>辅祭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E4%BF%A1%E5%BE%92</t>
@@ -1289,7 +1286,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1301,7 +1298,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -2803,7 +2800,7 @@
         <v>77</v>
       </c>
       <c r="F40" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2829,10 +2826,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" t="s">
         <v>79</v>
-      </c>
-      <c r="F41" t="s">
-        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2858,10 +2855,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" t="s">
         <v>81</v>
-      </c>
-      <c r="F42" t="s">
-        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2887,10 +2884,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s">
         <v>83</v>
-      </c>
-      <c r="F43" t="s">
-        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -2916,10 +2913,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" t="s">
         <v>85</v>
-      </c>
-      <c r="F44" t="s">
-        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2945,10 +2942,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
         <v>87</v>
-      </c>
-      <c r="F45" t="s">
-        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2974,10 +2971,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
         <v>89</v>
-      </c>
-      <c r="F46" t="s">
-        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>2</v>
@@ -3003,10 +3000,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
         <v>91</v>
-      </c>
-      <c r="F47" t="s">
-        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -3032,10 +3029,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" t="s">
         <v>93</v>
-      </c>
-      <c r="F48" t="s">
-        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -3061,10 +3058,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" t="s">
         <v>95</v>
-      </c>
-      <c r="F49" t="s">
-        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -3090,10 +3087,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
         <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>2</v>
@@ -3119,10 +3116,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -3148,10 +3145,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
         <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -3177,10 +3174,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
         <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3206,10 +3203,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" t="s">
         <v>105</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3235,10 +3232,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" t="s">
         <v>107</v>
-      </c>
-      <c r="F55" t="s">
-        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>3</v>
@@ -3264,10 +3261,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>6</v>
@@ -3293,10 +3290,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
         <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3322,10 +3319,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
         <v>113</v>
-      </c>
-      <c r="F58" t="s">
-        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>6</v>
@@ -3351,10 +3348,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" t="s">
         <v>115</v>
-      </c>
-      <c r="F59" t="s">
-        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3380,10 +3377,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
         <v>117</v>
-      </c>
-      <c r="F60" t="s">
-        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3409,10 +3406,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
         <v>119</v>
-      </c>
-      <c r="F61" t="s">
-        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3438,10 +3435,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" t="s">
         <v>121</v>
-      </c>
-      <c r="F62" t="s">
-        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
@@ -3467,10 +3464,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" t="s">
         <v>123</v>
-      </c>
-      <c r="F63" t="s">
-        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3496,10 +3493,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
         <v>125</v>
-      </c>
-      <c r="F64" t="s">
-        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3554,10 +3551,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>126</v>
+      </c>
+      <c r="F66" t="s">
         <v>127</v>
-      </c>
-      <c r="F66" t="s">
-        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>3</v>
@@ -3583,10 +3580,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>128</v>
+      </c>
+      <c r="F67" t="s">
         <v>129</v>
-      </c>
-      <c r="F67" t="s">
-        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>4</v>
@@ -3612,10 +3609,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>130</v>
+      </c>
+      <c r="F68" t="s">
         <v>131</v>
-      </c>
-      <c r="F68" t="s">
-        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>24</v>
@@ -3641,10 +3638,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>132</v>
+      </c>
+      <c r="F69" t="s">
         <v>133</v>
-      </c>
-      <c r="F69" t="s">
-        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>4</v>
@@ -3670,10 +3667,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>134</v>
+      </c>
+      <c r="F70" t="s">
         <v>135</v>
-      </c>
-      <c r="F70" t="s">
-        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3699,10 +3696,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>136</v>
+      </c>
+      <c r="F71" t="s">
         <v>137</v>
-      </c>
-      <c r="F71" t="s">
-        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3728,10 +3725,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>138</v>
+      </c>
+      <c r="F72" t="s">
         <v>139</v>
-      </c>
-      <c r="F72" t="s">
-        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3757,10 +3754,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>140</v>
+      </c>
+      <c r="F73" t="s">
         <v>141</v>
-      </c>
-      <c r="F73" t="s">
-        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3786,10 +3783,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>142</v>
+      </c>
+      <c r="F74" t="s">
         <v>143</v>
-      </c>
-      <c r="F74" t="s">
-        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3815,10 +3812,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>144</v>
+      </c>
+      <c r="F75" t="s">
         <v>145</v>
-      </c>
-      <c r="F75" t="s">
-        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>19</v>
@@ -3844,10 +3841,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>146</v>
+      </c>
+      <c r="F76" t="s">
         <v>147</v>
-      </c>
-      <c r="F76" t="s">
-        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3873,10 +3870,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>148</v>
+      </c>
+      <c r="F77" t="s">
         <v>149</v>
-      </c>
-      <c r="F77" t="s">
-        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3931,10 +3928,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>150</v>
+      </c>
+      <c r="F79" t="s">
         <v>151</v>
-      </c>
-      <c r="F79" t="s">
-        <v>152</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3960,10 +3957,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>152</v>
+      </c>
+      <c r="F80" t="s">
         <v>153</v>
-      </c>
-      <c r="F80" t="s">
-        <v>154</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3989,10 +3986,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>154</v>
+      </c>
+      <c r="F81" t="s">
         <v>155</v>
-      </c>
-      <c r="F81" t="s">
-        <v>156</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4047,10 +4044,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>156</v>
+      </c>
+      <c r="F83" t="s">
         <v>157</v>
-      </c>
-      <c r="F83" t="s">
-        <v>158</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -4076,10 +4073,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>158</v>
+      </c>
+      <c r="F84" t="s">
         <v>159</v>
-      </c>
-      <c r="F84" t="s">
-        <v>160</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4105,10 +4102,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>160</v>
+      </c>
+      <c r="F85" t="s">
         <v>161</v>
-      </c>
-      <c r="F85" t="s">
-        <v>162</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4134,10 +4131,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>162</v>
+      </c>
+      <c r="F86" t="s">
         <v>163</v>
-      </c>
-      <c r="F86" t="s">
-        <v>164</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4163,10 +4160,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>164</v>
+      </c>
+      <c r="F87" t="s">
         <v>165</v>
-      </c>
-      <c r="F87" t="s">
-        <v>166</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4192,10 +4189,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>166</v>
+      </c>
+      <c r="F88" t="s">
         <v>167</v>
-      </c>
-      <c r="F88" t="s">
-        <v>168</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4221,10 +4218,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>168</v>
+      </c>
+      <c r="F89" t="s">
         <v>169</v>
-      </c>
-      <c r="F89" t="s">
-        <v>170</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4250,10 +4247,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>170</v>
+      </c>
+      <c r="F90" t="s">
         <v>171</v>
-      </c>
-      <c r="F90" t="s">
-        <v>172</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4279,10 +4276,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>172</v>
+      </c>
+      <c r="F91" t="s">
         <v>173</v>
-      </c>
-      <c r="F91" t="s">
-        <v>174</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4308,10 +4305,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>174</v>
+      </c>
+      <c r="F92" t="s">
         <v>175</v>
-      </c>
-      <c r="F92" t="s">
-        <v>176</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4337,10 +4334,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>176</v>
+      </c>
+      <c r="F93" t="s">
         <v>177</v>
-      </c>
-      <c r="F93" t="s">
-        <v>178</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4366,10 +4363,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>178</v>
+      </c>
+      <c r="F94" t="s">
         <v>179</v>
-      </c>
-      <c r="F94" t="s">
-        <v>180</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4395,10 +4392,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>180</v>
+      </c>
+      <c r="F95" t="s">
         <v>181</v>
-      </c>
-      <c r="F95" t="s">
-        <v>182</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4424,10 +4421,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>182</v>
+      </c>
+      <c r="F96" t="s">
         <v>183</v>
-      </c>
-      <c r="F96" t="s">
-        <v>184</v>
       </c>
       <c r="G96" t="n">
         <v>2</v>
@@ -4453,10 +4450,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>184</v>
+      </c>
+      <c r="F97" t="s">
         <v>185</v>
-      </c>
-      <c r="F97" t="s">
-        <v>186</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4482,10 +4479,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>186</v>
+      </c>
+      <c r="F98" t="s">
         <v>187</v>
-      </c>
-      <c r="F98" t="s">
-        <v>188</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4511,10 +4508,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>188</v>
+      </c>
+      <c r="F99" t="s">
         <v>189</v>
-      </c>
-      <c r="F99" t="s">
-        <v>190</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4540,10 +4537,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>190</v>
+      </c>
+      <c r="F100" t="s">
         <v>191</v>
-      </c>
-      <c r="F100" t="s">
-        <v>192</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4569,10 +4566,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>192</v>
+      </c>
+      <c r="F101" t="s">
         <v>193</v>
-      </c>
-      <c r="F101" t="s">
-        <v>194</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4598,10 +4595,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>194</v>
+      </c>
+      <c r="F102" t="s">
         <v>195</v>
-      </c>
-      <c r="F102" t="s">
-        <v>196</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4627,10 +4624,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>196</v>
+      </c>
+      <c r="F103" t="s">
         <v>197</v>
-      </c>
-      <c r="F103" t="s">
-        <v>198</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4656,10 +4653,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>198</v>
+      </c>
+      <c r="F104" t="s">
         <v>199</v>
-      </c>
-      <c r="F104" t="s">
-        <v>200</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4685,10 +4682,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>200</v>
+      </c>
+      <c r="F105" t="s">
         <v>201</v>
-      </c>
-      <c r="F105" t="s">
-        <v>202</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4714,10 +4711,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>202</v>
+      </c>
+      <c r="F106" t="s">
         <v>203</v>
-      </c>
-      <c r="F106" t="s">
-        <v>204</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4743,10 +4740,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>204</v>
+      </c>
+      <c r="F107" t="s">
         <v>205</v>
-      </c>
-      <c r="F107" t="s">
-        <v>206</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4772,10 +4769,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>206</v>
+      </c>
+      <c r="F108" t="s">
         <v>207</v>
-      </c>
-      <c r="F108" t="s">
-        <v>208</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4801,10 +4798,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>208</v>
+      </c>
+      <c r="F109" t="s">
         <v>209</v>
-      </c>
-      <c r="F109" t="s">
-        <v>210</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4830,10 +4827,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>210</v>
+      </c>
+      <c r="F110" t="s">
         <v>211</v>
-      </c>
-      <c r="F110" t="s">
-        <v>212</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4859,10 +4856,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>212</v>
+      </c>
+      <c r="F111" t="s">
         <v>213</v>
-      </c>
-      <c r="F111" t="s">
-        <v>214</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4888,10 +4885,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>214</v>
+      </c>
+      <c r="F112" t="s">
         <v>215</v>
-      </c>
-      <c r="F112" t="s">
-        <v>216</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4917,10 +4914,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>216</v>
+      </c>
+      <c r="F113" t="s">
         <v>217</v>
-      </c>
-      <c r="F113" t="s">
-        <v>218</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4946,10 +4943,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>218</v>
+      </c>
+      <c r="F114" t="s">
         <v>219</v>
-      </c>
-      <c r="F114" t="s">
-        <v>220</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4975,10 +4972,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>220</v>
+      </c>
+      <c r="F115" t="s">
         <v>221</v>
-      </c>
-      <c r="F115" t="s">
-        <v>222</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5004,10 +5001,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>222</v>
+      </c>
+      <c r="F116" t="s">
         <v>223</v>
-      </c>
-      <c r="F116" t="s">
-        <v>224</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5033,10 +5030,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>224</v>
+      </c>
+      <c r="F117" t="s">
         <v>225</v>
-      </c>
-      <c r="F117" t="s">
-        <v>226</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5062,10 +5059,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>226</v>
+      </c>
+      <c r="F118" t="s">
         <v>227</v>
-      </c>
-      <c r="F118" t="s">
-        <v>228</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5091,10 +5088,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>228</v>
+      </c>
+      <c r="F119" t="s">
         <v>229</v>
-      </c>
-      <c r="F119" t="s">
-        <v>230</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5120,10 +5117,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>230</v>
+      </c>
+      <c r="F120" t="s">
         <v>231</v>
-      </c>
-      <c r="F120" t="s">
-        <v>232</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5149,10 +5146,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>232</v>
+      </c>
+      <c r="F121" t="s">
         <v>233</v>
-      </c>
-      <c r="F121" t="s">
-        <v>234</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5178,10 +5175,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>234</v>
+      </c>
+      <c r="F122" t="s">
         <v>235</v>
-      </c>
-      <c r="F122" t="s">
-        <v>236</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5207,10 +5204,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>236</v>
+      </c>
+      <c r="F123" t="s">
         <v>237</v>
-      </c>
-      <c r="F123" t="s">
-        <v>238</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5236,10 +5233,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>238</v>
+      </c>
+      <c r="F124" t="s">
         <v>239</v>
-      </c>
-      <c r="F124" t="s">
-        <v>240</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5323,10 +5320,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>240</v>
+      </c>
+      <c r="F127" t="s">
         <v>241</v>
-      </c>
-      <c r="F127" t="s">
-        <v>242</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5352,10 +5349,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>242</v>
+      </c>
+      <c r="F128" t="s">
         <v>243</v>
-      </c>
-      <c r="F128" t="s">
-        <v>244</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5381,10 +5378,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>244</v>
+      </c>
+      <c r="F129" t="s">
         <v>245</v>
-      </c>
-      <c r="F129" t="s">
-        <v>246</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5410,10 +5407,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>246</v>
+      </c>
+      <c r="F130" t="s">
         <v>247</v>
-      </c>
-      <c r="F130" t="s">
-        <v>248</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5439,10 +5436,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>248</v>
+      </c>
+      <c r="F131" t="s">
         <v>249</v>
-      </c>
-      <c r="F131" t="s">
-        <v>250</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5468,10 +5465,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>250</v>
+      </c>
+      <c r="F132" t="s">
         <v>251</v>
-      </c>
-      <c r="F132" t="s">
-        <v>252</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5497,10 +5494,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>252</v>
+      </c>
+      <c r="F133" t="s">
         <v>253</v>
-      </c>
-      <c r="F133" t="s">
-        <v>254</v>
       </c>
       <c r="G133" t="n">
         <v>4</v>
@@ -5526,10 +5523,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>254</v>
+      </c>
+      <c r="F134" t="s">
         <v>255</v>
-      </c>
-      <c r="F134" t="s">
-        <v>256</v>
       </c>
       <c r="G134" t="n">
         <v>2</v>
@@ -5555,10 +5552,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>256</v>
+      </c>
+      <c r="F135" t="s">
         <v>257</v>
-      </c>
-      <c r="F135" t="s">
-        <v>258</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5584,10 +5581,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>258</v>
+      </c>
+      <c r="F136" t="s">
         <v>259</v>
-      </c>
-      <c r="F136" t="s">
-        <v>260</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5613,10 +5610,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>260</v>
+      </c>
+      <c r="F137" t="s">
         <v>261</v>
-      </c>
-      <c r="F137" t="s">
-        <v>262</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5642,10 +5639,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>262</v>
+      </c>
+      <c r="F138" t="s">
         <v>263</v>
-      </c>
-      <c r="F138" t="s">
-        <v>264</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5671,10 +5668,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>264</v>
+      </c>
+      <c r="F139" t="s">
         <v>265</v>
-      </c>
-      <c r="F139" t="s">
-        <v>266</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5700,10 +5697,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>266</v>
+      </c>
+      <c r="F140" t="s">
         <v>267</v>
-      </c>
-      <c r="F140" t="s">
-        <v>268</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5729,10 +5726,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>268</v>
+      </c>
+      <c r="F141" t="s">
         <v>269</v>
-      </c>
-      <c r="F141" t="s">
-        <v>270</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5758,10 +5755,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>270</v>
+      </c>
+      <c r="F142" t="s">
         <v>271</v>
-      </c>
-      <c r="F142" t="s">
-        <v>272</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5787,10 +5784,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>272</v>
+      </c>
+      <c r="F143" t="s">
         <v>273</v>
-      </c>
-      <c r="F143" t="s">
-        <v>274</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5816,10 +5813,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>274</v>
+      </c>
+      <c r="F144" t="s">
         <v>275</v>
-      </c>
-      <c r="F144" t="s">
-        <v>276</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5845,10 +5842,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>276</v>
+      </c>
+      <c r="F145" t="s">
         <v>277</v>
-      </c>
-      <c r="F145" t="s">
-        <v>278</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5874,10 +5871,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>278</v>
+      </c>
+      <c r="F146" t="s">
         <v>279</v>
-      </c>
-      <c r="F146" t="s">
-        <v>280</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5903,10 +5900,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>280</v>
+      </c>
+      <c r="F147" t="s">
         <v>281</v>
-      </c>
-      <c r="F147" t="s">
-        <v>282</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5932,10 +5929,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>282</v>
+      </c>
+      <c r="F148" t="s">
         <v>283</v>
-      </c>
-      <c r="F148" t="s">
-        <v>284</v>
       </c>
       <c r="G148" t="n">
         <v>7</v>
@@ -5961,10 +5958,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>284</v>
+      </c>
+      <c r="F149" t="s">
         <v>285</v>
-      </c>
-      <c r="F149" t="s">
-        <v>286</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5990,10 +5987,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>286</v>
+      </c>
+      <c r="F150" t="s">
         <v>287</v>
-      </c>
-      <c r="F150" t="s">
-        <v>288</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6019,10 +6016,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>288</v>
+      </c>
+      <c r="F151" t="s">
         <v>289</v>
-      </c>
-      <c r="F151" t="s">
-        <v>290</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6048,10 +6045,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>290</v>
+      </c>
+      <c r="F152" t="s">
         <v>291</v>
-      </c>
-      <c r="F152" t="s">
-        <v>292</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6077,10 +6074,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>292</v>
+      </c>
+      <c r="F153" t="s">
         <v>293</v>
-      </c>
-      <c r="F153" t="s">
-        <v>294</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6106,10 +6103,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>294</v>
+      </c>
+      <c r="F154" t="s">
         <v>295</v>
-      </c>
-      <c r="F154" t="s">
-        <v>296</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6135,10 +6132,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>296</v>
+      </c>
+      <c r="F155" t="s">
         <v>297</v>
-      </c>
-      <c r="F155" t="s">
-        <v>298</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6164,10 +6161,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>298</v>
+      </c>
+      <c r="F156" t="s">
         <v>299</v>
-      </c>
-      <c r="F156" t="s">
-        <v>300</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6193,10 +6190,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>300</v>
+      </c>
+      <c r="F157" t="s">
         <v>301</v>
-      </c>
-      <c r="F157" t="s">
-        <v>302</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6222,10 +6219,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>302</v>
+      </c>
+      <c r="F158" t="s">
         <v>303</v>
-      </c>
-      <c r="F158" t="s">
-        <v>304</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6251,10 +6248,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>304</v>
+      </c>
+      <c r="F159" t="s">
         <v>305</v>
-      </c>
-      <c r="F159" t="s">
-        <v>306</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6280,10 +6277,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>306</v>
+      </c>
+      <c r="F160" t="s">
         <v>307</v>
-      </c>
-      <c r="F160" t="s">
-        <v>308</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6309,10 +6306,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>308</v>
+      </c>
+      <c r="F161" t="s">
         <v>309</v>
-      </c>
-      <c r="F161" t="s">
-        <v>310</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6338,10 +6335,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>310</v>
+      </c>
+      <c r="F162" t="s">
         <v>311</v>
-      </c>
-      <c r="F162" t="s">
-        <v>312</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6367,10 +6364,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>312</v>
+      </c>
+      <c r="F163" t="s">
         <v>313</v>
-      </c>
-      <c r="F163" t="s">
-        <v>314</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6396,10 +6393,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>314</v>
+      </c>
+      <c r="F164" t="s">
         <v>315</v>
-      </c>
-      <c r="F164" t="s">
-        <v>316</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6425,10 +6422,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>316</v>
+      </c>
+      <c r="F165" t="s">
         <v>317</v>
-      </c>
-      <c r="F165" t="s">
-        <v>318</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6454,10 +6451,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>318</v>
+      </c>
+      <c r="F166" t="s">
         <v>319</v>
-      </c>
-      <c r="F166" t="s">
-        <v>320</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6483,10 +6480,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>320</v>
+      </c>
+      <c r="F167" t="s">
         <v>321</v>
-      </c>
-      <c r="F167" t="s">
-        <v>322</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6512,10 +6509,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>322</v>
+      </c>
+      <c r="F168" t="s">
         <v>323</v>
-      </c>
-      <c r="F168" t="s">
-        <v>324</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6541,10 +6538,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>324</v>
+      </c>
+      <c r="F169" t="s">
         <v>325</v>
-      </c>
-      <c r="F169" t="s">
-        <v>326</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6570,10 +6567,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>326</v>
+      </c>
+      <c r="F170" t="s">
         <v>327</v>
-      </c>
-      <c r="F170" t="s">
-        <v>328</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6599,10 +6596,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>328</v>
+      </c>
+      <c r="F171" t="s">
         <v>329</v>
-      </c>
-      <c r="F171" t="s">
-        <v>330</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6628,10 +6625,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>330</v>
+      </c>
+      <c r="F172" t="s">
         <v>331</v>
-      </c>
-      <c r="F172" t="s">
-        <v>332</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6657,10 +6654,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>332</v>
+      </c>
+      <c r="F173" t="s">
         <v>333</v>
-      </c>
-      <c r="F173" t="s">
-        <v>334</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6686,10 +6683,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>334</v>
+      </c>
+      <c r="F174" t="s">
         <v>335</v>
-      </c>
-      <c r="F174" t="s">
-        <v>336</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6715,10 +6712,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>336</v>
+      </c>
+      <c r="F175" t="s">
         <v>337</v>
-      </c>
-      <c r="F175" t="s">
-        <v>338</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6744,10 +6741,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>338</v>
+      </c>
+      <c r="F176" t="s">
         <v>339</v>
-      </c>
-      <c r="F176" t="s">
-        <v>340</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6773,10 +6770,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>340</v>
+      </c>
+      <c r="F177" t="s">
         <v>341</v>
-      </c>
-      <c r="F177" t="s">
-        <v>342</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6802,10 +6799,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>342</v>
+      </c>
+      <c r="F178" t="s">
         <v>343</v>
-      </c>
-      <c r="F178" t="s">
-        <v>344</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6831,10 +6828,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>344</v>
+      </c>
+      <c r="F179" t="s">
         <v>345</v>
-      </c>
-      <c r="F179" t="s">
-        <v>346</v>
       </c>
       <c r="G179" t="n">
         <v>2</v>
@@ -6860,10 +6857,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>346</v>
+      </c>
+      <c r="F180" t="s">
         <v>347</v>
-      </c>
-      <c r="F180" t="s">
-        <v>348</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6889,10 +6886,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>348</v>
+      </c>
+      <c r="F181" t="s">
         <v>349</v>
-      </c>
-      <c r="F181" t="s">
-        <v>350</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6918,10 +6915,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>350</v>
+      </c>
+      <c r="F182" t="s">
         <v>351</v>
-      </c>
-      <c r="F182" t="s">
-        <v>352</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6947,10 +6944,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>352</v>
+      </c>
+      <c r="F183" t="s">
         <v>353</v>
-      </c>
-      <c r="F183" t="s">
-        <v>354</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6976,10 +6973,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>354</v>
+      </c>
+      <c r="F184" t="s">
         <v>355</v>
-      </c>
-      <c r="F184" t="s">
-        <v>356</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7005,10 +7002,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>356</v>
+      </c>
+      <c r="F185" t="s">
         <v>357</v>
-      </c>
-      <c r="F185" t="s">
-        <v>358</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7034,10 +7031,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>358</v>
+      </c>
+      <c r="F186" t="s">
         <v>359</v>
-      </c>
-      <c r="F186" t="s">
-        <v>360</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7063,10 +7060,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>360</v>
+      </c>
+      <c r="F187" t="s">
         <v>361</v>
-      </c>
-      <c r="F187" t="s">
-        <v>362</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7092,10 +7089,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>362</v>
+      </c>
+      <c r="F188" t="s">
         <v>363</v>
-      </c>
-      <c r="F188" t="s">
-        <v>364</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7121,10 +7118,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>344</v>
+      </c>
+      <c r="F189" t="s">
         <v>345</v>
-      </c>
-      <c r="F189" t="s">
-        <v>346</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7150,10 +7147,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>364</v>
+      </c>
+      <c r="F190" t="s">
         <v>365</v>
-      </c>
-      <c r="F190" t="s">
-        <v>366</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7179,10 +7176,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>366</v>
+      </c>
+      <c r="F191" t="s">
         <v>367</v>
-      </c>
-      <c r="F191" t="s">
-        <v>368</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7208,10 +7205,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>368</v>
+      </c>
+      <c r="F192" t="s">
         <v>369</v>
-      </c>
-      <c r="F192" t="s">
-        <v>370</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7237,10 +7234,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>370</v>
+      </c>
+      <c r="F193" t="s">
         <v>371</v>
-      </c>
-      <c r="F193" t="s">
-        <v>372</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7266,10 +7263,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>372</v>
+      </c>
+      <c r="F194" t="s">
         <v>373</v>
-      </c>
-      <c r="F194" t="s">
-        <v>374</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7295,10 +7292,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>374</v>
+      </c>
+      <c r="F195" t="s">
         <v>375</v>
-      </c>
-      <c r="F195" t="s">
-        <v>376</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7324,10 +7321,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>376</v>
+      </c>
+      <c r="F196" t="s">
         <v>377</v>
-      </c>
-      <c r="F196" t="s">
-        <v>378</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7353,10 +7350,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>378</v>
+      </c>
+      <c r="F197" t="s">
         <v>379</v>
-      </c>
-      <c r="F197" t="s">
-        <v>380</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7382,10 +7379,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>380</v>
+      </c>
+      <c r="F198" t="s">
         <v>381</v>
-      </c>
-      <c r="F198" t="s">
-        <v>382</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7411,10 +7408,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>382</v>
+      </c>
+      <c r="F199" t="s">
         <v>383</v>
-      </c>
-      <c r="F199" t="s">
-        <v>384</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7440,10 +7437,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>384</v>
+      </c>
+      <c r="F200" t="s">
         <v>385</v>
-      </c>
-      <c r="F200" t="s">
-        <v>386</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7469,10 +7466,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>386</v>
+      </c>
+      <c r="F201" t="s">
         <v>387</v>
-      </c>
-      <c r="F201" t="s">
-        <v>388</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7498,10 +7495,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>388</v>
+      </c>
+      <c r="F202" t="s">
         <v>389</v>
-      </c>
-      <c r="F202" t="s">
-        <v>390</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7527,10 +7524,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>390</v>
+      </c>
+      <c r="F203" t="s">
         <v>391</v>
-      </c>
-      <c r="F203" t="s">
-        <v>392</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7556,10 +7553,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>392</v>
+      </c>
+      <c r="F204" t="s">
         <v>393</v>
-      </c>
-      <c r="F204" t="s">
-        <v>394</v>
       </c>
       <c r="G204" t="n">
         <v>2</v>
@@ -7585,10 +7582,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>394</v>
+      </c>
+      <c r="F205" t="s">
         <v>395</v>
-      </c>
-      <c r="F205" t="s">
-        <v>396</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7614,10 +7611,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>396</v>
+      </c>
+      <c r="F206" t="s">
         <v>397</v>
-      </c>
-      <c r="F206" t="s">
-        <v>398</v>
       </c>
       <c r="G206" t="n">
         <v>2</v>
@@ -7643,10 +7640,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>398</v>
+      </c>
+      <c r="F207" t="s">
         <v>399</v>
-      </c>
-      <c r="F207" t="s">
-        <v>400</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7672,10 +7669,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>400</v>
+      </c>
+      <c r="F208" t="s">
         <v>401</v>
-      </c>
-      <c r="F208" t="s">
-        <v>402</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7701,10 +7698,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
+        <v>402</v>
+      </c>
+      <c r="F209" t="s">
         <v>403</v>
-      </c>
-      <c r="F209" t="s">
-        <v>404</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7730,10 +7727,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>404</v>
+      </c>
+      <c r="F210" t="s">
         <v>405</v>
-      </c>
-      <c r="F210" t="s">
-        <v>406</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7759,10 +7756,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>406</v>
+      </c>
+      <c r="F211" t="s">
         <v>407</v>
-      </c>
-      <c r="F211" t="s">
-        <v>408</v>
       </c>
       <c r="G211" t="n">
         <v>2</v>
@@ -7788,10 +7785,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
+        <v>408</v>
+      </c>
+      <c r="F212" t="s">
         <v>409</v>
-      </c>
-      <c r="F212" t="s">
-        <v>410</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -7817,10 +7814,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
+        <v>126</v>
+      </c>
+      <c r="F213" t="s">
         <v>127</v>
-      </c>
-      <c r="F213" t="s">
-        <v>128</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -7846,10 +7843,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
+        <v>410</v>
+      </c>
+      <c r="F214" t="s">
         <v>411</v>
-      </c>
-      <c r="F214" t="s">
-        <v>412</v>
       </c>
       <c r="G214" t="n">
         <v>2</v>
@@ -7875,10 +7872,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
+        <v>412</v>
+      </c>
+      <c r="F215" t="s">
         <v>413</v>
-      </c>
-      <c r="F215" t="s">
-        <v>414</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -7904,10 +7901,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
+        <v>414</v>
+      </c>
+      <c r="F216" t="s">
         <v>415</v>
-      </c>
-      <c r="F216" t="s">
-        <v>416</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -7933,10 +7930,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
+        <v>416</v>
+      </c>
+      <c r="F217" t="s">
         <v>417</v>
-      </c>
-      <c r="F217" t="s">
-        <v>418</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -7962,10 +7959,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
+        <v>418</v>
+      </c>
+      <c r="F218" t="s">
         <v>419</v>
-      </c>
-      <c r="F218" t="s">
-        <v>420</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -7991,10 +7988,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
+        <v>420</v>
+      </c>
+      <c r="F219" t="s">
         <v>421</v>
-      </c>
-      <c r="F219" t="s">
-        <v>422</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8020,10 +8017,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
+        <v>422</v>
+      </c>
+      <c r="F220" t="s">
         <v>423</v>
-      </c>
-      <c r="F220" t="s">
-        <v>424</v>
       </c>
       <c r="G220" t="n">
         <v>3</v>
@@ -8049,10 +8046,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
+        <v>424</v>
+      </c>
+      <c r="F221" t="s">
         <v>425</v>
-      </c>
-      <c r="F221" t="s">
-        <v>426</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8078,10 +8075,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
+        <v>426</v>
+      </c>
+      <c r="F222" t="s">
         <v>427</v>
-      </c>
-      <c r="F222" t="s">
-        <v>428</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
